--- a/src/main/resources/Datas/DocsTestDatas.xlsx
+++ b/src/main/resources/Datas/DocsTestDatas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="51">
   <si>
     <t>Scenario</t>
   </si>
@@ -34,7 +34,7 @@
     <t>TC_001_Verify_EmployeenameTextBox_with_SpecialCharacters</t>
   </si>
   <si>
-    <t>}&amp;^!(${)*}</t>
+    <t>*^!)@*&amp;(!@</t>
   </si>
   <si>
     <t>Enter Only Characters.</t>
@@ -46,10 +46,13 @@
     <t>TC_002_Verify_EmployeenameTextBox_with_Numbers</t>
   </si>
   <si>
+    <t>500500262</t>
+  </si>
+  <si>
     <t>TC_003_Verify_MobileNumberTextBox_with_Characters</t>
   </si>
   <si>
-    <t>WXNEJWU</t>
+    <t>QSSCKNM</t>
   </si>
   <si>
     <t>Invalid Mobile number</t>
@@ -58,13 +61,13 @@
     <t>TC_004_Verify_MobileNumberTextBox_with_SpecialCharacters</t>
   </si>
   <si>
-    <t>}}*}###^)}</t>
+    <t>#){}!*%&amp;$^</t>
   </si>
   <si>
     <t>TC_005_Verify_EmailID_With_InValidEmail</t>
   </si>
   <si>
-    <t>KLKZORX</t>
+    <t>NONFJSU</t>
   </si>
   <si>
     <t>Invalid email address</t>
@@ -79,7 +82,10 @@
     <t>User Successfully created!</t>
   </si>
   <si>
-    <t>6383421423</t>
+    <t>Cause : User Vishal Mobile Number Is Already Exists!</t>
+  </si>
+  <si>
+    <t>6383421413</t>
   </si>
   <si>
     <t>ezhilrj24@gmail.com</t>
@@ -107,7 +113,7 @@
     <t>TC_009_Verify_FileUpload</t>
   </si>
   <si>
-    <t>File successfully uploaded</t>
+    <t>successfully uploaded.</t>
   </si>
   <si>
     <t>TC_010_Verify_FileUploaded data is Stored in Database</t>
@@ -126,6 +132,42 @@
   </si>
   <si>
     <t>User Email Id Is Already exists!</t>
+  </si>
+  <si>
+    <t>*{$!}}@%+)</t>
+  </si>
+  <si>
+    <t>-451673890</t>
+  </si>
+  <si>
+    <t>YQXVIAD</t>
+  </si>
+  <si>
+    <t>${@@({^!{#</t>
+  </si>
+  <si>
+    <t>YWJAJHI</t>
+  </si>
+  <si>
+    <t>TestCase Failed</t>
+  </si>
+  <si>
+    <t>Cause : User Mobile Number Is Already exists!</t>
+  </si>
+  <si>
+    <t>#{(}!}!!_$</t>
+  </si>
+  <si>
+    <t>1418485358</t>
+  </si>
+  <si>
+    <t>NZJKULN</t>
+  </si>
+  <si>
+    <t>%$$!{^!$_+</t>
+  </si>
+  <si>
+    <t>QHESIVY</t>
   </si>
 </sst>
 </file>
@@ -133,10 +175,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -182,20 +224,59 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -204,24 +285,24 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,43 +317,35 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -280,46 +353,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,13 +388,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,109 +538,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,19 +556,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,38 +572,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -556,11 +598,11 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -579,26 +621,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -627,11 +656,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -653,11 +688,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,152 +699,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -831,9 +864,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1172,12 +1202,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="16.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="66.5714285714286" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="2" width="79.8571428571429" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="2" width="39.2857142857143" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="2" width="16.7142857142857" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="2" width="46.1428571428571" collapsed="false"/>
-    <col min="6" max="16384" style="2" width="10.2857142857143" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" style="1" width="66.5714285714286" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="79.8571428571429" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="39.2857142857143" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="16.7142857142857" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="46.1428571428571" collapsed="true"/>
+    <col min="6" max="16384" style="2" width="10.2857142857143" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:5">
@@ -1201,13 +1231,13 @@
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>6</v>
+      <c r="B2" t="s">
+        <v>46</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="6"/>
@@ -1216,90 +1246,92 @@
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="6">
-        <v>-963772679</v>
+      <c r="B3" t="s">
+        <v>47</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="6"/>
     </row>
     <row r="4" ht="15" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
       <c r="C4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="6"/>
     </row>
     <row r="5" ht="15" spans="1:5">
       <c r="A5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="6"/>
     </row>
     <row r="6" ht="15" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="7" t="s">
         <v>16</v>
       </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
       <c r="C6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" ht="15" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" ht="15" spans="1:5">
       <c r="A8" s="5"/>
       <c r="B8" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" ht="15" spans="1:5">
       <c r="A9" s="5"/>
       <c r="B9" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -1307,100 +1339,106 @@
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
       </c>
       <c r="E10" s="6"/>
     </row>
     <row r="11" ht="15" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" ht="15" spans="1:5">
+    <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="6"/>
     </row>
     <row r="13" ht="20" customHeight="1" spans="1:5">
       <c r="A13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>24</v>
+        <v>33</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
       </c>
       <c r="E13" s="6"/>
     </row>
     <row r="14" ht="15" spans="1:5">
       <c r="A14" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" ht="15" spans="1:3">
+    <row r="15" ht="15" spans="1:4">
       <c r="A15" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="9"/>
+        <v>37</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="8"/>
       <c r="C16" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="9"/>
+      <c r="A17" s="8"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="9"/>
+      <c r="A18" s="8"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="9"/>
-      <c r="C19" s="10"/>
+      <c r="A19" s="8"/>
+      <c r="C19" s="9"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="9"/>
-      <c r="C20" s="10"/>
+      <c r="A20" s="8"/>
+      <c r="C20" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/main/resources/Datas/DocsTestDatas.xlsx
+++ b/src/main/resources/Datas/DocsTestDatas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
   <si>
     <t>Scenario</t>
   </si>
@@ -34,7 +34,7 @@
     <t>TC_001_Verify_EmployeenameTextBox_with_SpecialCharacters</t>
   </si>
   <si>
-    <t>*^!)@*&amp;(!@</t>
+    <t>#{(}!}!!_$</t>
   </si>
   <si>
     <t>Enter Only Characters.</t>
@@ -46,13 +46,13 @@
     <t>TC_002_Verify_EmployeenameTextBox_with_Numbers</t>
   </si>
   <si>
-    <t>500500262</t>
+    <t>1418485358</t>
   </si>
   <si>
     <t>TC_003_Verify_MobileNumberTextBox_with_Characters</t>
   </si>
   <si>
-    <t>QSSCKNM</t>
+    <t>NZJKULN</t>
   </si>
   <si>
     <t>Invalid Mobile number</t>
@@ -61,13 +61,13 @@
     <t>TC_004_Verify_MobileNumberTextBox_with_SpecialCharacters</t>
   </si>
   <si>
-    <t>#){}!*%&amp;$^</t>
+    <t>%$$!{^!$_+</t>
   </si>
   <si>
     <t>TC_005_Verify_EmailID_With_InValidEmail</t>
   </si>
   <si>
-    <t>NONFJSU</t>
+    <t>QHESIVY</t>
   </si>
   <si>
     <t>Invalid email address</t>
@@ -82,7 +82,7 @@
     <t>User Successfully created!</t>
   </si>
   <si>
-    <t>Cause : User Vishal Mobile Number Is Already Exists!</t>
+    <t>Cause : User Mobile Number Is Already exists!</t>
   </si>
   <si>
     <t>6383421413</t>
@@ -134,40 +134,10 @@
     <t>User Email Id Is Already exists!</t>
   </si>
   <si>
-    <t>*{$!}}@%+)</t>
-  </si>
-  <si>
-    <t>-451673890</t>
-  </si>
-  <si>
-    <t>YQXVIAD</t>
-  </si>
-  <si>
-    <t>${@@({^!{#</t>
-  </si>
-  <si>
-    <t>YWJAJHI</t>
+    <t>TC_013_Verify_with_EmptyExcel</t>
   </si>
   <si>
     <t>TestCase Failed</t>
-  </si>
-  <si>
-    <t>Cause : User Mobile Number Is Already exists!</t>
-  </si>
-  <si>
-    <t>#{(}!}!!_$</t>
-  </si>
-  <si>
-    <t>1418485358</t>
-  </si>
-  <si>
-    <t>NZJKULN</t>
-  </si>
-  <si>
-    <t>%$$!{^!$_+</t>
-  </si>
-  <si>
-    <t>QHESIVY</t>
   </si>
 </sst>
 </file>
@@ -175,9 +145,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -223,6 +193,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -245,40 +223,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,6 +254,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -300,68 +292,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -388,187 +358,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,7 +571,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,35 +608,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -667,6 +626,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -688,9 +656,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -699,160 +669,160 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -863,17 +833,23 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1197,20 +1173,20 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="16.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="66.5714285714286" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="2" width="79.8571428571429" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="39.2857142857143" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="2" width="16.7142857142857" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="46.1428571428571" collapsed="true"/>
-    <col min="6" max="16384" style="2" width="10.2857142857143" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="1" width="66.5714285714286" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="2" width="79.8571428571429" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="2" width="39.2857142857143" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="2" width="27.5619047619048" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="2" width="46.1428571428571" collapsed="false"/>
+    <col min="6" max="16384" style="2" width="10.2857142857143" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:5">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1227,218 +1203,226 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="15" spans="1:5">
+    <row r="2" spans="1:5">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" ht="15" spans="1:5">
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" ht="15" spans="1:5">
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" ht="15" spans="1:5">
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" ht="15" spans="1:5">
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" ht="15" spans="1:5">
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" ht="15" spans="1:5">
+      <c r="E7" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="5"/>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" ht="15" spans="1:5">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="5"/>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:5">
       <c r="A10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" ht="15" spans="1:5">
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="6"/>
+      <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="6"/>
+      <c r="E12" s="7"/>
     </row>
     <row r="13" ht="20" customHeight="1" spans="1:5">
       <c r="A13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" ht="15" spans="1:5">
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6" t="s">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" ht="15" spans="1:4">
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="8"/>
-      <c r="C16" s="6" t="s">
+      <c r="A16" s="9"/>
+      <c r="C16" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="8"/>
+    <row r="17" ht="15" spans="1:3">
+      <c r="A17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="8"/>
+      <c r="A18" s="10"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="8"/>
-      <c r="C19" s="9"/>
+      <c r="A19" s="10"/>
+      <c r="C19" s="11"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="8"/>
-      <c r="C20" s="9"/>
+      <c r="A20" s="10"/>
+      <c r="C20" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/main/resources/Datas/DocsTestDatas.xlsx
+++ b/src/main/resources/Datas/DocsTestDatas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
   <si>
     <t>Scenario</t>
   </si>
@@ -34,7 +34,7 @@
     <t>TC_001_Verify_EmployeenameTextBox_with_SpecialCharacters</t>
   </si>
   <si>
-    <t>#{(}!}!!_$</t>
+    <t>!{)}(*{+{^</t>
   </si>
   <si>
     <t>Enter Only Characters.</t>
@@ -46,13 +46,13 @@
     <t>TC_002_Verify_EmployeenameTextBox_with_Numbers</t>
   </si>
   <si>
-    <t>1418485358</t>
+    <t>335446205</t>
   </si>
   <si>
     <t>TC_003_Verify_MobileNumberTextBox_with_Characters</t>
   </si>
   <si>
-    <t>NZJKULN</t>
+    <t>SLQUDAN</t>
   </si>
   <si>
     <t>Invalid Mobile number</t>
@@ -61,13 +61,13 @@
     <t>TC_004_Verify_MobileNumberTextBox_with_SpecialCharacters</t>
   </si>
   <si>
-    <t>%$$!{^!$_+</t>
+    <t>%*!$@*&amp;@_$</t>
   </si>
   <si>
     <t>TC_005_Verify_EmailID_With_InValidEmail</t>
   </si>
   <si>
-    <t>QHESIVY</t>
+    <t>MLMNUYG</t>
   </si>
   <si>
     <t>Invalid email address</t>
@@ -82,7 +82,7 @@
     <t>User Successfully created!</t>
   </si>
   <si>
-    <t>Cause : User Mobile Number Is Already exists!</t>
+    <t>Cause : please enter Email Id!</t>
   </si>
   <si>
     <t>6383421413</t>
@@ -137,7 +137,16 @@
     <t>TC_013_Verify_with_EmptyExcel</t>
   </si>
   <si>
-    <t>TestCase Failed</t>
+    <t>TC_014_Verify_TextBoxErrorMessages</t>
+  </si>
+  <si>
+    <t>please enter employee name!</t>
+  </si>
+  <si>
+    <t>please enter mobile no!</t>
+  </si>
+  <si>
+    <t>please enter Email Id!</t>
   </si>
 </sst>
 </file>
@@ -147,10 +156,10 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,10 +196,89 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FFE8EAED"/>
-      <name val="Consolas"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -202,128 +290,43 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,187 +361,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,30 +570,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -609,8 +588,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,6 +605,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -656,6 +650,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -669,186 +672,189 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1172,18 +1178,18 @@
   <sheetPr/>
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="16.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="66.5714285714286" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="2" width="79.8571428571429" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="2" width="39.2857142857143" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="2" width="27.5619047619048" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="2" width="46.1428571428571" collapsed="false"/>
-    <col min="6" max="16384" style="2" width="10.2857142857143" collapsed="false"/>
+    <col min="1" max="1" width="66.5714285714286" style="1" customWidth="1"/>
+    <col min="2" max="2" width="79.8571428571429" style="2" customWidth="1"/>
+    <col min="3" max="3" width="39.2857142857143" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.5619047619048" style="2" customWidth="1"/>
+    <col min="5" max="5" width="46.1428571428571" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="10.2857142857143" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1382,47 +1388,77 @@
       </c>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:5">
       <c r="A15" s="5" t="s">
         <v>36</v>
       </c>
+      <c r="B15" s="9"/>
       <c r="C15" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="9"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="10"/>
+      <c r="B16" s="9"/>
       <c r="C16" s="7" t="s">
         <v>38</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" ht="15" spans="1:3">
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="5" t="s">
         <v>39</v>
       </c>
+      <c r="B17" s="9"/>
       <c r="C17" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="10"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="10"/>
-      <c r="C19" s="11"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="10"/>
-      <c r="C20" s="11"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="12"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="12"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/main/resources/Datas/DocsTestDatas.xlsx
+++ b/src/main/resources/Datas/DocsTestDatas.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7965"/>
+    <workbookView windowWidth="19815" windowHeight="7965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="UploadBandhuDocs" sheetId="1" r:id="rId1"/>
+    <sheet name="BandhuDocs" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="49">
   <si>
     <t>Scenario</t>
   </si>
@@ -147,6 +148,21 @@
   </si>
   <si>
     <t>please enter Email Id!</t>
+  </si>
+  <si>
+    <t>TC_001_Verify_BandhuDocs_PageTitle</t>
+  </si>
+  <si>
+    <t>bandhu_docsAudit</t>
+  </si>
+  <si>
+    <t>TC_002_Employee_Data is Showing</t>
+  </si>
+  <si>
+    <t>Should be Displayed</t>
+  </si>
+  <si>
+    <t>TC_003_Verify_AuditScreen_is_Showing</t>
   </si>
 </sst>
 </file>
@@ -155,13 +171,35 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
-    <font>
-      <sz val="11"/>
+  <fonts count="26">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Arial Rounded MT Bold"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -175,60 +213,43 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial Narrow"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Arial Rounded MT Bold"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,6 +263,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -252,30 +297,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,6 +311,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -296,16 +333,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,28 +365,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -349,7 +379,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="4" tint="-0.25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,19 +391,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,163 +571,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,26 +600,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,17 +639,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,15 +702,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -690,130 +720,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -821,41 +851,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1178,287 +1208,468 @@
   <sheetPr/>
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView zoomScaleSheetLayoutView="60" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="16.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="66.5714285714286" style="1" customWidth="1"/>
-    <col min="2" max="2" width="79.8571428571429" style="2" customWidth="1"/>
-    <col min="3" max="3" width="39.2857142857143" style="2" customWidth="1"/>
-    <col min="4" max="4" width="27.5619047619048" style="2" customWidth="1"/>
-    <col min="5" max="5" width="46.1428571428571" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="10.2857142857143" style="2"/>
+    <col min="1" max="1" width="66.5714285714286" style="11" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="79.8571428571429" style="4" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="39.2857142857143" style="4" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.5619047619048" style="4" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="46.1428571428571" style="4" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="10.2857142857143" style="4" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="10" customFormat="1" ht="15" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="15" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" ht="15" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" ht="15" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" ht="15" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" ht="15" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" ht="15" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" ht="15" spans="1:5">
+      <c r="A8" s="3"/>
+      <c r="B8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" ht="15" spans="1:5">
+      <c r="A9" s="3"/>
+      <c r="B9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" ht="18" customHeight="1" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" ht="15" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" ht="15" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" ht="20" customHeight="1" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" ht="15" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" ht="15" spans="1:4">
+      <c r="A15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="8"/>
+      <c r="C16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" ht="15" spans="1:4">
+      <c r="A17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" ht="15" spans="1:4">
+      <c r="A18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="9"/>
+      <c r="C19" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="9"/>
+      <c r="C20" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="42.7142857142857" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.5714285714286" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5714285714286" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.2857142857143" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5714285714286" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>7</v>
-      </c>
+      <c r="A2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="5"/>
       <c r="D2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="7"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="7"/>
+      <c r="A3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="7"/>
+      <c r="A4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="7"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="7"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="5"/>
-      <c r="B8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="5"/>
-      <c r="B9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-    </row>
-    <row r="10" ht="18" customHeight="1" spans="1:5">
-      <c r="A10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="7"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="7"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" ht="20" customHeight="1" spans="1:5">
-      <c r="A13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="7"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="7"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="10"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="9"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" ht="16.5" spans="1:5">
+      <c r="A16" s="8"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="9"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="12"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="12"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="9"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" ht="16.5" spans="1:5">
+      <c r="A19" s="9"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" ht="16.5" spans="1:5">
+      <c r="A20" s="9"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/main/resources/Datas/DocsTestDatas.xlsx
+++ b/src/main/resources/Datas/DocsTestDatas.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="53">
   <si>
     <t>Scenario</t>
   </si>
@@ -163,6 +163,18 @@
   </si>
   <si>
     <t>TC_003_Verify_AuditScreen_is_Showing</t>
+  </si>
+  <si>
+    <t>TC_004_Verify_AuditScreen_Fiedls_Readonly</t>
+  </si>
+  <si>
+    <t>All Fields should be Non Editable</t>
+  </si>
+  <si>
+    <t>TC_005_Verify_Images</t>
+  </si>
+  <si>
+    <t>Images Should not be Broken</t>
   </si>
 </sst>
 </file>
@@ -170,10 +182,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -226,6 +238,90 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -234,137 +330,53 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -391,25 +403,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,13 +511,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,139 +559,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -603,8 +615,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,6 +660,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -635,30 +691,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -677,173 +709,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1214,12 +1226,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="16.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="66.5714285714286" style="11" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="79.8571428571429" style="4" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="39.2857142857143" style="4" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.5619047619048" style="4" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="46.1428571428571" style="4" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="10.2857142857143" style="4" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="11" width="66.5714285714286" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="79.8571428571429" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="4" width="39.2857142857143" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="4" width="27.5619047619048" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="4" width="46.1428571428571" collapsed="true"/>
+    <col min="6" max="16384" style="4" width="10.2857142857143" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" s="10" customFormat="1" ht="15" spans="1:5">
@@ -1490,17 +1502,17 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="42.7142857142857" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.5714285714286" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.5714285714286" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.2857142857143" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.5714285714286" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.14285714285714" style="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="42.7142857142857" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="29.5714285714286" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="42.8571428571429" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="25.2857142857143" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="26.5714285714286" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.14285714285714" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1541,7 +1553,7 @@
       <c r="C3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="4"/>
@@ -1554,23 +1566,35 @@
       <c r="C4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="3"/>
+      <c r="A5" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="3"/>
+      <c r="A6" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5">

--- a/src/main/resources/Datas/DocsTestDatas.xlsx
+++ b/src/main/resources/Datas/DocsTestDatas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7965" activeTab="1"/>
+    <workbookView windowWidth="19815" windowHeight="7965"/>
   </bookViews>
   <sheets>
     <sheet name="UploadBandhuDocs" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="75">
   <si>
     <t>Scenario</t>
   </si>
@@ -35,7 +35,7 @@
     <t>TC_001_Verify_EmployeenameTextBox_with_SpecialCharacters</t>
   </si>
   <si>
-    <t>!{)}(*{+{^</t>
+    <t>^^&amp;^!%@}(}</t>
   </si>
   <si>
     <t>Enter Only Characters.</t>
@@ -47,13 +47,13 @@
     <t>TC_002_Verify_EmployeenameTextBox_with_Numbers</t>
   </si>
   <si>
-    <t>335446205</t>
+    <t>891001764</t>
   </si>
   <si>
     <t>TC_003_Verify_MobileNumberTextBox_with_Characters</t>
   </si>
   <si>
-    <t>SLQUDAN</t>
+    <t>LGGCYDM</t>
   </si>
   <si>
     <t>Invalid Mobile number</t>
@@ -62,13 +62,13 @@
     <t>TC_004_Verify_MobileNumberTextBox_with_SpecialCharacters</t>
   </si>
   <si>
-    <t>%*!$@*&amp;@_$</t>
+    <t>}$_*@++^#{</t>
   </si>
   <si>
     <t>TC_005_Verify_EmailID_With_InValidEmail</t>
   </si>
   <si>
-    <t>MLMNUYG</t>
+    <t>TFCXXMF</t>
   </si>
   <si>
     <t>Invalid email address</t>
@@ -83,10 +83,13 @@
     <t>User Successfully created!</t>
   </si>
   <si>
-    <t>Cause : please enter Email Id!</t>
-  </si>
-  <si>
-    <t>6383421413</t>
+    <t>TestCase Failed</t>
+  </si>
+  <si>
+    <t>Cause : User Mobile Number Is Already exists!</t>
+  </si>
+  <si>
+    <t>9659686336</t>
   </si>
   <si>
     <t>ezhilrj24@gmail.com</t>
@@ -175,6 +178,69 @@
   </si>
   <si>
     <t>Images Should not be Broken</t>
+  </si>
+  <si>
+    <t>}$)+}#&amp;$})</t>
+  </si>
+  <si>
+    <t>-958342162</t>
+  </si>
+  <si>
+    <t>XEVCBAZ</t>
+  </si>
+  <si>
+    <t>%^$@&amp;)}%*)</t>
+  </si>
+  <si>
+    <t>ZWIWPVR</t>
+  </si>
+  <si>
+    <t>Cause : User Email Id Is Already exists!</t>
+  </si>
+  <si>
+    <t>Testcase Failed</t>
+  </si>
+  <si>
+    <t>Cause : User Vishal Email Id Is Already Exists !</t>
+  </si>
+  <si>
+    <t>__^!!(%)&amp;_</t>
+  </si>
+  <si>
+    <t>1060356440</t>
+  </si>
+  <si>
+    <t>DHRVGLC</t>
+  </si>
+  <si>
+    <t>!}_##)$_+!</t>
+  </si>
+  <si>
+    <t>BUNMRQF</t>
+  </si>
+  <si>
+    <t>*)!{}$!(})</t>
+  </si>
+  <si>
+    <t>507423034</t>
+  </si>
+  <si>
+    <t>PBGCBOK</t>
+  </si>
+  <si>
+    <t>_({{@@$}++</t>
+  </si>
+  <si>
+    <t>-829337865</t>
+  </si>
+  <si>
+    <t>BBBOVAU</t>
+  </si>
+  <si>
+    <t>@*&amp;@#$*#&amp;#</t>
+  </si>
+  <si>
+    <t>OFAEKZI</t>
   </si>
 </sst>
 </file>
@@ -182,10 +248,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -239,7 +305,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,6 +320,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -261,12 +335,19 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -275,18 +356,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -307,16 +397,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -330,53 +419,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -403,85 +469,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,91 +643,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,11 +678,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,6 +709,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -663,49 +770,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -714,148 +780,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -881,9 +947,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -894,6 +957,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1220,13 +1286,13 @@
   <sheetPr/>
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="60" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="16.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="11" width="66.5714285714286" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="10" width="66.5714285714286" collapsed="true"/>
     <col min="2" max="2" customWidth="true" style="4" width="79.8571428571429" collapsed="true"/>
     <col min="3" max="3" customWidth="true" style="4" width="39.2857142857143" collapsed="true"/>
     <col min="4" max="4" customWidth="true" style="4" width="27.5619047619048" collapsed="true"/>
@@ -1234,7 +1300,7 @@
     <col min="6" max="16384" style="4" width="10.2857142857143" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="10" customFormat="1" ht="15" spans="1:5">
+    <row r="1" s="9" customFormat="1" ht="15" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1251,82 +1317,82 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="15" spans="1:5">
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>6</v>
+      <c r="B2" t="s">
+        <v>70</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" ht="15" spans="1:5">
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>10</v>
+      <c r="B3" t="s">
+        <v>71</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" ht="15" spans="1:5">
+    <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>12</v>
+      <c r="B4" t="s">
+        <v>72</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" ht="15" spans="1:5">
+    <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>15</v>
+      <c r="B5" t="s">
+        <v>73</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" ht="15" spans="1:5">
+    <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>17</v>
+      <c r="B6" t="s">
+        <v>74</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" ht="15" spans="1:5">
+    <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
@@ -1336,26 +1402,26 @@
       <c r="C7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" ht="15" spans="1:5">
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="3"/>
       <c r="B8" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" ht="15" spans="1:5">
+    <row r="9" spans="1:5">
       <c r="A9" s="3"/>
       <c r="B9" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -1363,130 +1429,130 @@
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="6" t="s">
         <v>28</v>
       </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" ht="15" spans="1:5">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" ht="15" spans="1:5">
+    <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="5"/>
     </row>
     <row r="13" ht="20" customHeight="1" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="6" t="s">
         <v>28</v>
       </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" ht="15" spans="1:5">
+    <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" ht="15" spans="1:4">
+    <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="7"/>
+      <c r="C16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="8"/>
-      <c r="C16" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" ht="15" spans="1:4">
-      <c r="A17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>35</v>
-      </c>
       <c r="D17" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" ht="15" spans="1:4">
+    <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="9"/>
+      <c r="A19" s="8"/>
       <c r="C19" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="9"/>
+      <c r="A20" s="8"/>
       <c r="C20" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1501,8 +1567,8 @@
   <sheetPr/>
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1534,24 +1600,24 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2" s="5"/>
-      <c r="D2" s="6" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -1560,11 +1626,11 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -1573,11 +1639,11 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -1586,11 +1652,11 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
@@ -1661,7 +1727,7 @@
       <c r="E15" s="4"/>
     </row>
     <row r="16" ht="16.5" spans="1:5">
-      <c r="A16" s="8"/>
+      <c r="A16" s="7"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -1682,14 +1748,14 @@
       <c r="E18" s="4"/>
     </row>
     <row r="19" ht="16.5" spans="1:5">
-      <c r="A19" s="9"/>
+      <c r="A19" s="8"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
     <row r="20" ht="16.5" spans="1:5">
-      <c r="A20" s="9"/>
+      <c r="A20" s="8"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>

--- a/src/main/resources/Datas/DocsTestDatas.xlsx
+++ b/src/main/resources/Datas/DocsTestDatas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7965"/>
+    <workbookView windowWidth="19815" windowHeight="7965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="UploadBandhuDocs" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="58">
   <si>
     <t>Scenario</t>
   </si>
@@ -35,7 +35,7 @@
     <t>TC_001_Verify_EmployeenameTextBox_with_SpecialCharacters</t>
   </si>
   <si>
-    <t>^^&amp;^!%@}(}</t>
+    <t>_({{@@$}++</t>
   </si>
   <si>
     <t>Enter Only Characters.</t>
@@ -47,13 +47,13 @@
     <t>TC_002_Verify_EmployeenameTextBox_with_Numbers</t>
   </si>
   <si>
-    <t>891001764</t>
+    <t>-829337865</t>
   </si>
   <si>
     <t>TC_003_Verify_MobileNumberTextBox_with_Characters</t>
   </si>
   <si>
-    <t>LGGCYDM</t>
+    <t>BBBOVAU</t>
   </si>
   <si>
     <t>Invalid Mobile number</t>
@@ -62,13 +62,13 @@
     <t>TC_004_Verify_MobileNumberTextBox_with_SpecialCharacters</t>
   </si>
   <si>
-    <t>}$_*@++^#{</t>
+    <t>@*&amp;@#$*#&amp;#</t>
   </si>
   <si>
     <t>TC_005_Verify_EmailID_With_InValidEmail</t>
   </si>
   <si>
-    <t>TFCXXMF</t>
+    <t>OFAEKZI</t>
   </si>
   <si>
     <t>Invalid email address</t>
@@ -83,10 +83,7 @@
     <t>User Successfully created!</t>
   </si>
   <si>
-    <t>TestCase Failed</t>
-  </si>
-  <si>
-    <t>Cause : User Mobile Number Is Already exists!</t>
+    <t>Cause : User Vishal Email Id Is Already Exists !</t>
   </si>
   <si>
     <t>9659686336</t>
@@ -180,67 +177,19 @@
     <t>Images Should not be Broken</t>
   </si>
   <si>
-    <t>}$)+}#&amp;$})</t>
-  </si>
-  <si>
-    <t>-958342162</t>
-  </si>
-  <si>
-    <t>XEVCBAZ</t>
-  </si>
-  <si>
-    <t>%^$@&amp;)}%*)</t>
-  </si>
-  <si>
-    <t>ZWIWPVR</t>
-  </si>
-  <si>
-    <t>Cause : User Email Id Is Already exists!</t>
-  </si>
-  <si>
-    <t>Testcase Failed</t>
-  </si>
-  <si>
-    <t>Cause : User Vishal Email Id Is Already Exists !</t>
-  </si>
-  <si>
-    <t>__^!!(%)&amp;_</t>
-  </si>
-  <si>
-    <t>1060356440</t>
-  </si>
-  <si>
-    <t>DHRVGLC</t>
-  </si>
-  <si>
-    <t>!}_##)$_+!</t>
-  </si>
-  <si>
-    <t>BUNMRQF</t>
-  </si>
-  <si>
-    <t>*)!{}$!(})</t>
-  </si>
-  <si>
-    <t>507423034</t>
-  </si>
-  <si>
-    <t>PBGCBOK</t>
-  </si>
-  <si>
-    <t>_({{@@$}++</t>
-  </si>
-  <si>
-    <t>-829337865</t>
-  </si>
-  <si>
-    <t>BBBOVAU</t>
-  </si>
-  <si>
-    <t>@*&amp;@#$*#&amp;#</t>
-  </si>
-  <si>
-    <t>OFAEKZI</t>
+    <t>TC_006_Verify_Datas</t>
+  </si>
+  <si>
+    <t>All Fields should be Same</t>
+  </si>
+  <si>
+    <t>TC_007_Verify_Aadhardetails</t>
+  </si>
+  <si>
+    <t>TC_008_Verify_BankDetails</t>
+  </si>
+  <si>
+    <t>TestCase Failed</t>
   </si>
 </sst>
 </file>
@@ -248,9 +197,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -304,13 +253,28 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -319,8 +283,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,45 +293,46 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -380,69 +346,52 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -469,13 +418,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,169 +598,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -693,13 +642,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -709,6 +662,39 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -730,48 +716,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -780,15 +729,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -798,130 +747,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -944,26 +893,26 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1286,8 +1235,8 @@
   <sheetPr/>
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="16.5" outlineLevelCol="4"/>
@@ -1317,82 +1266,82 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" ht="15" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>70</v>
+      <c r="B2" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" ht="15" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
-        <v>71</v>
+      <c r="B3" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" ht="15" spans="1:5">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
-        <v>72</v>
+      <c r="B4" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" ht="15" spans="1:5">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
-        <v>73</v>
+      <c r="B5" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" ht="15" spans="1:5">
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
-        <v>74</v>
+      <c r="B6" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" ht="15" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
@@ -1402,26 +1351,26 @@
       <c r="C7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="D7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" ht="15" spans="1:5">
       <c r="A8" s="3"/>
       <c r="B8" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" ht="15" spans="1:5">
       <c r="A9" s="3"/>
       <c r="B9" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -1429,130 +1378,130 @@
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="C10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" ht="15" spans="1:5">
+      <c r="A11" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" ht="15" spans="1:5">
+      <c r="A12" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="5"/>
     </row>
     <row r="13" ht="20" customHeight="1" spans="1:5">
       <c r="A13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" ht="15" spans="1:5">
+      <c r="A14" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" ht="15" spans="1:4">
+      <c r="A15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="3" t="s">
+      <c r="C15" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="D15" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="7"/>
       <c r="C16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" ht="15" spans="1:4">
+      <c r="A17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="3" t="s">
+      <c r="C17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" ht="15" spans="1:4">
+      <c r="A18" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="3" t="s">
+      <c r="C18" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="D18" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="8"/>
       <c r="C19" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="8"/>
       <c r="C20" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1567,8 +1516,8 @@
   <sheetPr/>
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1600,10 +1549,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" t="s">
@@ -1613,11 +1562,11 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -1626,11 +1575,11 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -1639,11 +1588,11 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -1652,33 +1601,45 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="3"/>
+      <c r="A8" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="D8" t="s">
+        <v>57</v>
+      </c>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="3"/>
+      <c r="A9" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>

--- a/src/main/resources/Datas/DocsTestDatas.xlsx
+++ b/src/main/resources/Datas/DocsTestDatas.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7965" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19815" windowHeight="7965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="UploadBandhuDocs" sheetId="1" r:id="rId1"/>
     <sheet name="BandhuDocs" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="59">
   <si>
     <t>Scenario</t>
   </si>
@@ -189,20 +189,17 @@
     <t>TC_008_Verify_BankDetails</t>
   </si>
   <si>
-    <t>TestCase Failed</t>
+    <t>All Aadhar details should be Present</t>
+  </si>
+  <si>
+    <t>All Bank details should be Present</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,152 +249,8 @@
       <name val="Arial Rounded MT Bold"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -406,204 +259,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.25"/>
+        <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -626,251 +293,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -915,57 +340,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1227,29 +605,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="16.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="10" width="66.5714285714286" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="4" width="79.8571428571429" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="4" width="39.2857142857143" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="4" width="27.5619047619048" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="4" width="46.1428571428571" collapsed="true"/>
-    <col min="6" max="16384" style="4" width="10.2857142857143" collapsed="true"/>
+    <col min="1" max="1" width="66.5703125" style="10" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="79.85546875" style="4" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="39.28515625" style="4" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.5703125" style="4" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="46.140625" style="4" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="10.28515625" style="4" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" ht="15" spans="1:5">
+    <row r="1" spans="1:5" s="9" customFormat="1" ht="15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1266,7 +644,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="15" spans="1:5">
+    <row r="2" spans="1:5" ht="15">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1281,7 +659,7 @@
       </c>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" ht="15" spans="1:5">
+    <row r="3" spans="1:5" ht="15">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -1296,7 +674,7 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" ht="15" spans="1:5">
+    <row r="4" spans="1:5" ht="15">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -1311,7 +689,7 @@
       </c>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" ht="15" spans="1:5">
+    <row r="5" spans="1:5" ht="15">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -1326,7 +704,7 @@
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" ht="15" spans="1:5">
+    <row r="6" spans="1:5" ht="15">
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
@@ -1341,7 +719,7 @@
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" ht="15" spans="1:5">
+    <row r="7" spans="1:5" ht="15">
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
@@ -1358,7 +736,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" ht="15" spans="1:5">
+    <row r="8" spans="1:5" ht="15">
       <c r="A8" s="3"/>
       <c r="B8" s="5" t="s">
         <v>23</v>
@@ -1367,7 +745,7 @@
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" ht="15" spans="1:5">
+    <row r="9" spans="1:5" ht="15">
       <c r="A9" s="3"/>
       <c r="B9" s="5" t="s">
         <v>24</v>
@@ -1376,7 +754,7 @@
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" ht="18" customHeight="1" spans="1:5">
+    <row r="10" spans="1:5" ht="18" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>25</v>
       </c>
@@ -1391,7 +769,7 @@
       </c>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" ht="15" spans="1:5">
+    <row r="11" spans="1:5" ht="15">
       <c r="A11" s="3" t="s">
         <v>29</v>
       </c>
@@ -1404,7 +782,7 @@
       </c>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" ht="15" spans="1:5">
+    <row r="12" spans="1:5" ht="15">
       <c r="A12" s="3" t="s">
         <v>31</v>
       </c>
@@ -1417,7 +795,7 @@
       </c>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" ht="20" customHeight="1" spans="1:5">
+    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>33</v>
       </c>
@@ -1432,7 +810,7 @@
       </c>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" ht="15" spans="1:5">
+    <row r="14" spans="1:5" ht="15">
       <c r="A14" s="3" t="s">
         <v>34</v>
       </c>
@@ -1445,7 +823,7 @@
       </c>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" ht="15" spans="1:4">
+    <row r="15" spans="1:5" ht="15">
       <c r="A15" s="3" t="s">
         <v>36</v>
       </c>
@@ -1456,7 +834,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:5">
       <c r="A16" s="7"/>
       <c r="C16" s="5" t="s">
         <v>38</v>
@@ -1465,7 +843,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" ht="15" spans="1:4">
+    <row r="17" spans="1:4" ht="15">
       <c r="A17" s="3" t="s">
         <v>39</v>
       </c>
@@ -1476,7 +854,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" ht="15" spans="1:4">
+    <row r="18" spans="1:4" ht="15">
       <c r="A18" s="3" t="s">
         <v>40</v>
       </c>
@@ -1507,27 +885,25 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="42.7142857142857" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="29.5714285714286" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="42.8571428571429" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="25.2857142857143" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="26.5714285714286" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.14285714285714" collapsed="true"/>
+    <col min="1" max="1" width="42.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="42.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="26.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1630,9 +1006,11 @@
         <v>55</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="E8" s="4"/>
     </row>
@@ -1641,8 +1019,12 @@
         <v>56</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5">
@@ -1687,7 +1069,7 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" ht="16.5" spans="1:5">
+    <row r="16" spans="1:5" ht="16.5">
       <c r="A16" s="7"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1708,14 +1090,14 @@
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" ht="16.5" spans="1:5">
+    <row r="19" spans="1:5" ht="16.5">
       <c r="A19" s="8"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" ht="16.5" spans="1:5">
+    <row r="20" spans="1:5" ht="16.5">
       <c r="A20" s="8"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1724,6 +1106,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/Datas/DocsTestDatas.xlsx
+++ b/src/main/resources/Datas/DocsTestDatas.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19815" windowHeight="7965" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="UploadBandhuDocs" sheetId="1" r:id="rId1"/>
     <sheet name="BandhuDocs" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="65">
   <si>
     <t>Scenario</t>
   </si>
@@ -186,20 +186,44 @@
     <t>TC_007_Verify_Aadhardetails</t>
   </si>
   <si>
+    <t>All Aadhar details should be Present</t>
+  </si>
+  <si>
     <t>TC_008_Verify_BankDetails</t>
   </si>
   <si>
-    <t>All Aadhar details should be Present</t>
-  </si>
-  <si>
     <t>All Bank details should be Present</t>
+  </si>
+  <si>
+    <t>TC_009_Verify_Reject_without_Reason</t>
+  </si>
+  <si>
+    <t>Please write the reject reason</t>
+  </si>
+  <si>
+    <t>TC_010_Verify_Division_name_is_Mandatory</t>
+  </si>
+  <si>
+    <t>Division Name is Mandatory</t>
+  </si>
+  <si>
+    <t>TestCase Failed</t>
+  </si>
+  <si>
+    <t>TC_011_Verify_Branch_name_is_Mandatory</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,8 +273,152 @@
       <name val="Arial Rounded MT Bold"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -269,8 +437,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -293,13 +647,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -333,6 +929,9 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -340,10 +939,57 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -605,29 +1251,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="16.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="66.5703125" style="10" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="79.85546875" style="4" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="39.28515625" style="4" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.5703125" style="4" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="46.140625" style="4" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="10.28515625" style="4" collapsed="1"/>
+    <col min="1" max="1" width="66.5714285714286" style="10" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="79.8571428571429" style="4" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="39.2857142857143" style="4" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.5714285714286" style="4" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="46.1428571428571" style="4" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="10.2857142857143" style="4" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="9" customFormat="1" ht="15">
+    <row r="1" s="9" customFormat="1" ht="15" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -644,82 +1290,82 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15">
+    <row r="2" ht="15" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:5" ht="15">
+    <row r="3" ht="15" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" ht="15">
+    <row r="4" ht="15" spans="1:5">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" ht="15">
+    <row r="5" ht="15" spans="1:5">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" ht="15">
+    <row r="6" ht="15" spans="1:5">
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" ht="15">
+    <row r="7" ht="15" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
@@ -729,14 +1375,14 @@
       <c r="C7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="D7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15">
+    <row r="8" ht="15" spans="1:5">
       <c r="A8" s="3"/>
       <c r="B8" s="5" t="s">
         <v>23</v>
@@ -745,7 +1391,7 @@
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" ht="15">
+    <row r="9" ht="15" spans="1:5">
       <c r="A9" s="3"/>
       <c r="B9" s="5" t="s">
         <v>24</v>
@@ -754,22 +1400,22 @@
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" ht="18" customHeight="1">
+    <row r="10" ht="18" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="11" t="s">
         <v>28</v>
       </c>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" ht="15">
+    <row r="11" ht="15" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>29</v>
       </c>
@@ -777,12 +1423,12 @@
       <c r="C11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" ht="15">
+    <row r="12" ht="15" spans="1:5">
       <c r="A12" s="3" t="s">
         <v>31</v>
       </c>
@@ -790,27 +1436,27 @@
       <c r="C12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="13" ht="20.1" customHeight="1" spans="1:5">
       <c r="A13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="11" t="s">
         <v>28</v>
       </c>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" ht="15">
+    <row r="14" ht="15" spans="1:5">
       <c r="A14" s="3" t="s">
         <v>34</v>
       </c>
@@ -818,50 +1464,50 @@
       <c r="C14" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" ht="15">
+    <row r="15" ht="15" spans="1:4">
       <c r="A15" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="D15" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="7"/>
       <c r="C16" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15">
+      <c r="D16" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" ht="15" spans="1:4">
       <c r="A17" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15">
+      <c r="D17" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" ht="15" spans="1:4">
       <c r="A18" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="11" t="s">
         <v>8</v>
       </c>
     </row>
@@ -870,7 +1516,7 @@
       <c r="C19" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="11" t="s">
         <v>8</v>
       </c>
     </row>
@@ -879,31 +1525,33 @@
       <c r="C20" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="11" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="42.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="42.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="26.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" width="42.7142857142857" style="1" customWidth="1"/>
+    <col min="2" max="2" width="59.8571428571429" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.8571428571429" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.2857142857143" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5714285714286" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -931,7 +1579,7 @@
         <v>45</v>
       </c>
       <c r="C2" s="5"/>
-      <c r="D2" t="s">
+      <c r="D2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="4"/>
@@ -944,7 +1592,7 @@
       <c r="C3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="4"/>
@@ -957,7 +1605,7 @@
       <c r="C4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="4"/>
@@ -970,7 +1618,7 @@
       <c r="C5" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="4"/>
@@ -983,7 +1631,7 @@
       <c r="C6" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="4"/>
@@ -996,7 +1644,7 @@
       <c r="C7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="4"/>
@@ -1007,42 +1655,56 @@
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="3"/>
+      <c r="A10" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="3"/>
+      <c r="A11" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="3"/>
+      <c r="A12" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -1069,7 +1731,7 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5" ht="16.5">
+    <row r="16" ht="16.5" spans="1:5">
       <c r="A16" s="7"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1090,14 +1752,14 @@
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:5" ht="16.5">
+    <row r="19" ht="16.5" spans="1:5">
       <c r="A19" s="8"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:5" ht="16.5">
+    <row r="20" ht="16.5" spans="1:5">
       <c r="A20" s="8"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1106,5 +1768,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/Datas/DocsTestDatas.xlsx
+++ b/src/main/resources/Datas/DocsTestDatas.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7965" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7965"/>
   </bookViews>
   <sheets>
-    <sheet name="UploadBandhuDocs" sheetId="1" r:id="rId1"/>
+    <sheet name="UploadBandhuDocs" sheetId="3" r:id="rId1"/>
     <sheet name="BandhuDocs" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="96">
   <si>
     <t>Scenario</t>
   </si>
@@ -35,25 +35,22 @@
     <t>TC_001_Verify_EmployeenameTextBox_with_SpecialCharacters</t>
   </si>
   <si>
-    <t>_({{@@$}++</t>
+    <t>^)$$(((%%#</t>
   </si>
   <si>
     <t>Enter Only Characters.</t>
   </si>
   <si>
-    <t>TestCase Passed</t>
-  </si>
-  <si>
     <t>TC_002_Verify_EmployeenameTextBox_with_Numbers</t>
   </si>
   <si>
-    <t>-829337865</t>
+    <t>-1004377445</t>
   </si>
   <si>
     <t>TC_003_Verify_MobileNumberTextBox_with_Characters</t>
   </si>
   <si>
-    <t>BBBOVAU</t>
+    <t>GONEZDX</t>
   </si>
   <si>
     <t>Invalid Mobile number</t>
@@ -62,13 +59,13 @@
     <t>TC_004_Verify_MobileNumberTextBox_with_SpecialCharacters</t>
   </si>
   <si>
-    <t>@*&amp;@#$*#&amp;#</t>
+    <t>)!!{*#@}^^</t>
   </si>
   <si>
     <t>TC_005_Verify_EmailID_With_InValidEmail</t>
   </si>
   <si>
-    <t>OFAEKZI</t>
+    <t>HIVYYDB</t>
   </si>
   <si>
     <t>Invalid email address</t>
@@ -81,9 +78,6 @@
   </si>
   <si>
     <t>User Successfully created!</t>
-  </si>
-  <si>
-    <t>Cause : User Vishal Email Id Is Already Exists !</t>
   </si>
   <si>
     <t>9659686336</t>
@@ -102,12 +96,12 @@
     <t>Stored Successfully</t>
   </si>
   <si>
-    <t>Testcase Passed</t>
-  </si>
-  <si>
     <t>TC_008_Verify_ExporButton</t>
   </si>
   <si>
+    <t>NULL</t>
+  </si>
+  <si>
     <t>File Should Be Downloaded</t>
   </si>
   <si>
@@ -156,6 +150,9 @@
     <t>bandhu_docsAudit</t>
   </si>
   <si>
+    <t>TestCase Passed</t>
+  </si>
+  <si>
     <t>TC_002_Employee_Data is Showing</t>
   </si>
   <si>
@@ -204,13 +201,109 @@
     <t>TC_010_Verify_Division_name_is_Mandatory</t>
   </si>
   <si>
+    <t>ARVIND FASHIONS LIMITED</t>
+  </si>
+  <si>
     <t>Division Name is Mandatory</t>
   </si>
   <si>
-    <t>TestCase Failed</t>
-  </si>
-  <si>
     <t>TC_011_Verify_Branch_name_is_Mandatory</t>
+  </si>
+  <si>
+    <t>South</t>
+  </si>
+  <si>
+    <t>Branch Name is Mandatory</t>
+  </si>
+  <si>
+    <t>TC_012_Verify_Town_name_is_Mandatory</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>Town Name is Mandatory</t>
+  </si>
+  <si>
+    <t>TC_013_Verify_State_name_is_Mandatory</t>
+  </si>
+  <si>
+    <t>TAMIL NADU</t>
+  </si>
+  <si>
+    <t>State Name is Mandatory</t>
+  </si>
+  <si>
+    <t>TC_014_Verify_RM1_is_Mandatory</t>
+  </si>
+  <si>
+    <t>Aniket Mishra-7213639</t>
+  </si>
+  <si>
+    <t>RM1 is Mandatory</t>
+  </si>
+  <si>
+    <t>TC_015_Verify_RM2_is_Mandatory</t>
+  </si>
+  <si>
+    <t>I Mohammed Ziaudden-7209689</t>
+  </si>
+  <si>
+    <t>RM2  is Mandatory</t>
+  </si>
+  <si>
+    <t>TC_016_Verify_Designation_is_Mandatory</t>
+  </si>
+  <si>
+    <t>Fashion Assistant</t>
+  </si>
+  <si>
+    <t>Designation is Mandatory</t>
+  </si>
+  <si>
+    <t>TC_017_Verify_ClientBranch_is_Mandatory</t>
+  </si>
+  <si>
+    <t>AFL SOUTH</t>
+  </si>
+  <si>
+    <t>Client Branch  is Mandatory</t>
+  </si>
+  <si>
+    <t>TC_018_Verify_3DaysDOJ_is_Mandatory</t>
+  </si>
+  <si>
+    <t>15-02-2023</t>
+  </si>
+  <si>
+    <t>3 days before current date is not allowed</t>
+  </si>
+  <si>
+    <t>TC_019_Verify_DOJ_is_Mandatory</t>
+  </si>
+  <si>
+    <t>Today</t>
+  </si>
+  <si>
+    <t>DOJ is Mandatory</t>
+  </si>
+  <si>
+    <t>TC_020_Verify_18Years_is_Mandatory</t>
+  </si>
+  <si>
+    <t>Age should be more than 18 years.Please enter a valid Date of Birth</t>
+  </si>
+  <si>
+    <t>TC_021_Verify_DOB_is_Mandatory</t>
+  </si>
+  <si>
+    <t>23-09-1999</t>
+  </si>
+  <si>
+    <t>DOB is Mandatory</t>
+  </si>
+  <si>
+    <t>TC_022_Verify_Resume_is_Showing</t>
   </si>
 </sst>
 </file>
@@ -218,12 +311,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,29 +360,100 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial Rounded MT Bold"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,91 +467,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -405,6 +484,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -445,19 +531,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,37 +627,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,122 +709,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -649,17 +735,15 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -682,7 +766,31 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -703,25 +811,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -750,152 +849,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -917,25 +1016,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -990,6 +1101,31 @@
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1257,23 +1393,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="16.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="66.5714285714286" style="10" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="79.8571428571429" style="4" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="39.2857142857143" style="4" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.5714285714286" style="4" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="46.1428571428571" style="4" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="10.2857142857143" style="4" collapsed="1"/>
+    <col min="1" max="1" width="56.2857142857143" customWidth="1"/>
+    <col min="2" max="2" width="33.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="33.8571428571429" customWidth="1"/>
+    <col min="4" max="4" width="16.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" ht="15" spans="1:5">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1290,246 +1425,265 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="15" spans="1:5">
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" ht="15" spans="1:5">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>10</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" ht="15" spans="1:5">
+      <c r="D3" s="7"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="7"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" ht="15" spans="1:5">
-      <c r="A5" s="3" t="s">
+      <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="C5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" ht="15" spans="1:5">
-      <c r="A6" s="3" t="s">
+      <c r="B6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="C6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="7"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" ht="15" spans="1:5">
-      <c r="A7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" ht="15" spans="1:5">
+      <c r="D7" s="7"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="3"/>
       <c r="B8" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" ht="15" spans="1:5">
+      <c r="D8" s="7"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="3"/>
       <c r="B9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" ht="33" customHeight="1" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" ht="18" customHeight="1" spans="1:5">
-      <c r="A10" s="3" t="s">
+      <c r="C10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="D10" s="7"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="B11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="C11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" ht="15" spans="1:5">
-      <c r="A11" s="3" t="s">
+      <c r="D11" s="7"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5" t="s">
+      <c r="B12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" ht="15" spans="1:5">
-      <c r="A12" s="3" t="s">
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" ht="38.25" spans="1:5">
+      <c r="A13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5" t="s">
+      <c r="B13" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A13" s="3" t="s">
+      <c r="B14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" ht="15" spans="1:5">
-      <c r="A14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" ht="15" spans="1:4">
-      <c r="A15" s="3" t="s">
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" ht="16.5" spans="1:5">
+      <c r="A16" s="11"/>
+      <c r="B16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="7"/>
-      <c r="C16" s="5" t="s">
+      <c r="B17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" ht="15" spans="1:4">
-      <c r="A17" s="3" t="s">
+      <c r="B18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" ht="15" spans="1:4">
-      <c r="A18" s="3" t="s">
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" ht="16.5" spans="1:5">
+      <c r="A19" s="12"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" ht="16.5" spans="1:5">
+      <c r="A20" s="13"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="8"/>
-      <c r="C19" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="8"/>
-      <c r="C20" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>8</v>
-      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="16"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="16"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="16"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D1:D23">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"TestCase Passed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"TestCase Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1538,17 +1692,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="42.7142857142857" style="1" customWidth="1"/>
     <col min="2" max="2" width="59.8571428571429" style="1" customWidth="1"/>
-    <col min="3" max="3" width="42.8571428571429" style="1" customWidth="1"/>
+    <col min="3" max="3" width="67" style="1" customWidth="1"/>
     <col min="4" max="4" width="25.2857142857143" style="1" customWidth="1"/>
     <col min="5" max="5" width="26.5714285714286" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9.14285714285714" style="1"/>
@@ -1573,200 +1727,320 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="6" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>8</v>
+      <c r="D3" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="4"/>
+        <v>47</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="C4" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>8</v>
+        <v>46</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>8</v>
+      <c r="D5" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>8</v>
+      <c r="D6" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>8</v>
+      <c r="D7" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>8</v>
+      <c r="D8" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>8</v>
+      <c r="D9" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>8</v>
+      <c r="D10" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>63</v>
+      <c r="D11" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
+      <c r="A13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+      <c r="A14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
+      <c r="A15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" ht="16.5" spans="1:5">
-      <c r="A16" s="7"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
+    <row r="16" spans="1:5">
+      <c r="A16" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>77</v>
+      </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
+      <c r="A17" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
+      <c r="A18" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" ht="16.5" spans="1:5">
-      <c r="A19" s="8"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
+    <row r="19" spans="1:5">
+      <c r="A19" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" ht="16.5" spans="1:5">
-      <c r="A20" s="8"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
+    <row r="20" spans="1:5">
+      <c r="A20" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="8"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="D$1:D$1048576">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"TestCase Passed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"TestCase Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/src/main/resources/Datas/DocsTestDatas.xlsx
+++ b/src/main/resources/Datas/DocsTestDatas.xlsx
@@ -311,10 +311,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -360,15 +360,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -382,6 +376,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -390,6 +420,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -399,7 +436,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -413,6 +450,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -421,84 +497,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -525,187 +525,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,6 +747,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -765,8 +791,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -795,52 +836,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -849,152 +849,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1041,9 +1041,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1396,7 +1393,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1655,25 +1652,25 @@
       <c r="E20" s="14"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="16"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="16"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="16"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D23">

--- a/src/main/resources/Datas/DocsTestDatas.xlsx
+++ b/src/main/resources/Datas/DocsTestDatas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7965"/>
+    <workbookView windowWidth="20490" windowHeight="7965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="UploadBandhuDocs" sheetId="3" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="126">
   <si>
     <t>Scenario</t>
   </si>
@@ -35,22 +35,25 @@
     <t>TC_001_Verify_EmployeenameTextBox_with_SpecialCharacters</t>
   </si>
   <si>
-    <t>^)$$(((%%#</t>
+    <t>${}}{#^^%!</t>
   </si>
   <si>
     <t>Enter Only Characters.</t>
   </si>
   <si>
+    <t>TestCase Passed</t>
+  </si>
+  <si>
     <t>TC_002_Verify_EmployeenameTextBox_with_Numbers</t>
   </si>
   <si>
-    <t>-1004377445</t>
+    <t>-834637116</t>
   </si>
   <si>
     <t>TC_003_Verify_MobileNumberTextBox_with_Characters</t>
   </si>
   <si>
-    <t>GONEZDX</t>
+    <t>TRGMTES</t>
   </si>
   <si>
     <t>Invalid Mobile number</t>
@@ -59,13 +62,13 @@
     <t>TC_004_Verify_MobileNumberTextBox_with_SpecialCharacters</t>
   </si>
   <si>
-    <t>)!!{*#@}^^</t>
+    <t>)&amp;%_#^)%()</t>
   </si>
   <si>
     <t>TC_005_Verify_EmailID_With_InValidEmail</t>
   </si>
   <si>
-    <t>HIVYYDB</t>
+    <t>LMDVWUD</t>
   </si>
   <si>
     <t>Invalid email address</t>
@@ -74,28 +77,31 @@
     <t>TC_006_Verify_User_is_Created</t>
   </si>
   <si>
-    <t>Vishal</t>
+    <t>Priyan</t>
   </si>
   <si>
     <t>User Successfully created!</t>
   </si>
   <si>
-    <t>9659686336</t>
-  </si>
-  <si>
-    <t>ezhilrj24@gmail.com</t>
+    <t>8248178682</t>
+  </si>
+  <si>
+    <t>priyan@fieldlytics.in</t>
   </si>
   <si>
     <t>TC_007_Verify_Userdata_is_Stored_in_Database</t>
   </si>
   <si>
-    <t xml:space="preserve">select * from EmployeeInitiateDocs where Employeename = 'Vishal'
+    <t xml:space="preserve">select * from EmployeeInitiateDocs where Employeename = 'Priyan'
 </t>
   </si>
   <si>
     <t>Stored Successfully</t>
   </si>
   <si>
+    <t>Testcase Passed</t>
+  </si>
+  <si>
     <t>TC_008_Verify_ExporButton</t>
   </si>
   <si>
@@ -150,7 +156,7 @@
     <t>bandhu_docsAudit</t>
   </si>
   <si>
-    <t>TestCase Passed</t>
+    <t>Page Should be Navigated</t>
   </si>
   <si>
     <t>TC_002_Employee_Data is Showing</t>
@@ -177,6 +183,9 @@
     <t>TC_006_Verify_Datas</t>
   </si>
   <si>
+    <t>7SFF3</t>
+  </si>
+  <si>
     <t>All Fields should be Same</t>
   </si>
   <si>
@@ -270,7 +279,16 @@
     <t>Client Branch  is Mandatory</t>
   </si>
   <si>
-    <t>TC_018_Verify_3DaysDOJ_is_Mandatory</t>
+    <t>TC_018_Verify_DOJ_is_Mandatory</t>
+  </si>
+  <si>
+    <t>Today</t>
+  </si>
+  <si>
+    <t>DOJ is Mandatory</t>
+  </si>
+  <si>
+    <t>TC_019_Verify_3DaysDOJ_is_Mandatory</t>
   </si>
   <si>
     <t>15-02-2023</t>
@@ -279,31 +297,103 @@
     <t>3 days before current date is not allowed</t>
   </si>
   <si>
-    <t>TC_019_Verify_DOJ_is_Mandatory</t>
-  </si>
-  <si>
-    <t>Today</t>
-  </si>
-  <si>
-    <t>DOJ is Mandatory</t>
-  </si>
-  <si>
-    <t>TC_020_Verify_18Years_is_Mandatory</t>
+    <t>TC_020_Verify_DOB_is_Mandatory</t>
+  </si>
+  <si>
+    <t>DOB is Mandatory</t>
+  </si>
+  <si>
+    <t>TC_021_Verify_18Years_is_Mandatory</t>
+  </si>
+  <si>
+    <t>23-09-1999</t>
   </si>
   <si>
     <t>Age should be more than 18 years.Please enter a valid Date of Birth</t>
   </si>
   <si>
-    <t>TC_021_Verify_DOB_is_Mandatory</t>
-  </si>
-  <si>
-    <t>23-09-1999</t>
-  </si>
-  <si>
-    <t>DOB is Mandatory</t>
-  </si>
-  <si>
-    <t>TC_022_Verify_Resume_is_Showing</t>
+    <t>TC_022_Verify_OB_Initiate</t>
+  </si>
+  <si>
+    <t>Employee Should be Approved</t>
+  </si>
+  <si>
+    <t>TestCase Failed</t>
+  </si>
+  <si>
+    <t>}}}%^+_%)_</t>
+  </si>
+  <si>
+    <t>-181850981</t>
+  </si>
+  <si>
+    <t>TYGJKQT</t>
+  </si>
+  <si>
+    <t>{^)&amp;(&amp;+&amp;!_</t>
+  </si>
+  <si>
+    <t>YSOBIBQ</t>
+  </si>
+  <si>
+    <t>&amp;$#(&amp;*%&amp;*+</t>
+  </si>
+  <si>
+    <t>-1562115385</t>
+  </si>
+  <si>
+    <t>APIMAXH</t>
+  </si>
+  <si>
+    <t>{}}$(()__)</t>
+  </si>
+  <si>
+    <t>PNVSXHI</t>
+  </si>
+  <si>
+    <t>))^($!*%!$</t>
+  </si>
+  <si>
+    <t>-1466359380</t>
+  </si>
+  <si>
+    <t>VTWICGA</t>
+  </si>
+  <si>
+    <t>{^@+$}_#++</t>
+  </si>
+  <si>
+    <t>XSTZNXH</t>
+  </si>
+  <si>
+    <t>#*#(+*(!()</t>
+  </si>
+  <si>
+    <t>1106271876</t>
+  </si>
+  <si>
+    <t>EVSEBXG</t>
+  </si>
+  <si>
+    <t>*$%!(%#(&amp;$</t>
+  </si>
+  <si>
+    <t>AJOXVSU</t>
+  </si>
+  <si>
+    <t>$^#^+&amp;(}($</t>
+  </si>
+  <si>
+    <t>2096209358</t>
+  </si>
+  <si>
+    <t>JBXGZBG</t>
+  </si>
+  <si>
+    <t>){#*%!}*&amp;_</t>
+  </si>
+  <si>
+    <t>PBUWUDR</t>
   </si>
 </sst>
 </file>
@@ -349,6 +439,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial Narrow"/>
       <charset val="134"/>
     </font>
@@ -358,6 +455,135 @@
       <color theme="1"/>
       <name val="Arial Narrow"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -367,142 +593,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -525,103 +615,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,86 +799,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -734,30 +824,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -769,6 +840,30 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -791,8 +886,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -811,45 +921,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -867,134 +944,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1010,37 +1087,34 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1392,17 +1466,17 @@
   <sheetPr/>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="56.2857142857143" customWidth="1"/>
-    <col min="2" max="2" width="33.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="33.8571428571429" customWidth="1"/>
-    <col min="4" max="4" width="16.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="56.2857142857143" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="62.4285714285714" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.8571428571429" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.7142857142857" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="52.5714285714286" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1426,251 +1500,287 @@
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6"/>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="B3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="7"/>
+      <c r="B4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="7"/>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="7"/>
+      <c r="B6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="4"/>
+      <c r="C7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3"/>
-      <c r="B8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="7"/>
+      <c r="B8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3"/>
-      <c r="B9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="7"/>
+      <c r="B9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
       <c r="E9" s="4"/>
     </row>
     <row r="10" ht="33" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="B10" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="7"/>
+      <c r="C10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="7"/>
+      <c r="B11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="C12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" ht="25.5" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" ht="38.25" spans="1:5">
-      <c r="A13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
       <c r="E15" s="4"/>
     </row>
     <row r="16" ht="16.5" spans="1:5">
-      <c r="A16" s="11"/>
-      <c r="B16" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="4"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>33</v>
+        <v>39</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="4"/>
+        <v>40</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
       <c r="E18" s="4"/>
     </row>
     <row r="19" ht="16.5" spans="1:5">
-      <c r="A19" s="12"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="4"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
       <c r="E19" s="4"/>
     </row>
     <row r="20" ht="16.5" spans="1:5">
       <c r="A20" s="13"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
+      <c r="B20" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="8"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="8"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="8"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D23">
@@ -1681,6 +1791,10 @@
       <formula>"TestCase Failed"</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="B9" r:id="rId1" display="priyan@fieldlytics.in" tooltip="mailto:priyan@fieldlytics.in"/>
+  </hyperlinks>
+  <printOptions horizontalCentered="true"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1691,18 +1805,18 @@
   <sheetPr/>
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="42.7142857142857" style="1" customWidth="1"/>
-    <col min="2" max="2" width="59.8571428571429" style="1" customWidth="1"/>
-    <col min="3" max="3" width="67" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.2857142857143" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.5714285714286" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.14285714285714" style="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="42.7142857142857" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="59.8571428571429" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="67.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="25.2857142857143" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="31.5714285714286" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.14285714285714" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1724,320 +1838,343 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
       </c>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>44</v>
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
       </c>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>44</v>
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
       </c>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>44</v>
+        <v>51</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
       </c>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>44</v>
+        <v>53</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
       </c>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>27</v>
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>55</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>44</v>
+        <v>56</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
       </c>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>44</v>
+        <v>58</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
       </c>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>44</v>
+        <v>60</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
       </c>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>44</v>
+        <v>62</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
       </c>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="4"/>
+        <v>65</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="4"/>
+        <v>68</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="4"/>
+        <v>71</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="4"/>
+        <v>74</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" s="4"/>
+        <v>77</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="4"/>
+        <v>80</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17" s="4"/>
+        <v>83</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" s="4"/>
+        <v>86</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D19" s="4"/>
+        <v>89</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D20" s="4"/>
+        <v>92</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>88</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D21" s="4"/>
+        <v>94</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D22" s="4"/>
+        <v>97</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
+      <c r="C23" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="8"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
+    <row r="24" spans="5:5">
+      <c r="E24" s="7"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D$1:D$1048576">
+  <conditionalFormatting sqref="D1:D23 D26:D1048576">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"TestCase Failed"</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"TestCase Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"TestCase Failed"</formula>
-    </cfRule>
   </conditionalFormatting>
+  <printOptions horizontalCentered="true"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/src/main/resources/Datas/DocsTestDatas.xlsx
+++ b/src/main/resources/Datas/DocsTestDatas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7965" activeTab="1"/>
+    <workbookView windowWidth="19815" windowHeight="7965"/>
   </bookViews>
   <sheets>
     <sheet name="UploadBandhuDocs" sheetId="3" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="95">
   <si>
     <t>Scenario</t>
   </si>
@@ -35,9 +35,6 @@
     <t>TC_001_Verify_EmployeenameTextBox_with_SpecialCharacters</t>
   </si>
   <si>
-    <t>${}}{#^^%!</t>
-  </si>
-  <si>
     <t>Enter Only Characters.</t>
   </si>
   <si>
@@ -47,30 +44,18 @@
     <t>TC_002_Verify_EmployeenameTextBox_with_Numbers</t>
   </si>
   <si>
-    <t>-834637116</t>
-  </si>
-  <si>
     <t>TC_003_Verify_MobileNumberTextBox_with_Characters</t>
   </si>
   <si>
-    <t>TRGMTES</t>
-  </si>
-  <si>
     <t>Invalid Mobile number</t>
   </si>
   <si>
     <t>TC_004_Verify_MobileNumberTextBox_with_SpecialCharacters</t>
   </si>
   <si>
-    <t>)&amp;%_#^)%()</t>
-  </si>
-  <si>
     <t>TC_005_Verify_EmailID_With_InValidEmail</t>
   </si>
   <si>
-    <t>LMDVWUD</t>
-  </si>
-  <si>
     <t>Invalid email address</t>
   </si>
   <si>
@@ -83,85 +68,87 @@
     <t>User Successfully created!</t>
   </si>
   <si>
+    <t>TestCase Failed</t>
+  </si>
+  <si>
+    <t>Cause : User Priyan Mobile Number Is Already Exists!</t>
+  </si>
+  <si>
     <t>8248178682</t>
   </si>
   <si>
     <t>priyan@fieldlytics.in</t>
   </si>
   <si>
-    <t>TC_007_Verify_Userdata_is_Stored_in_Database</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select * from EmployeeInitiateDocs where Employeename = 'Priyan'
-</t>
+    <t>TC_007_Verify_Duplicate_Mobileno_EmailID</t>
+  </si>
+  <si>
+    <t>User Mobile Number Is Already exists!</t>
+  </si>
+  <si>
+    <t>User Email Id Is Already exists!</t>
+  </si>
+  <si>
+    <t>TC_008_Verify_Userdata_is_Stored_in_Database</t>
   </si>
   <si>
     <t>Stored Successfully</t>
   </si>
   <si>
-    <t>Testcase Passed</t>
-  </si>
-  <si>
-    <t>TC_008_Verify_ExporButton</t>
+    <t>TC_009_Verify_FileUpload</t>
+  </si>
+  <si>
+    <t>successfully uploaded.</t>
+  </si>
+  <si>
+    <t>Testcase Failed</t>
+  </si>
+  <si>
+    <t>TC_010_Verify_FileUploaded data is Stored in Database</t>
+  </si>
+  <si>
+    <t>TC_011_Verify_ExporButton</t>
+  </si>
+  <si>
+    <t>File Should Be Downloaded</t>
+  </si>
+  <si>
+    <t>TC_012_Verify_UploadButton_Without_Selecting_File</t>
+  </si>
+  <si>
+    <t>csv file is required!</t>
+  </si>
+  <si>
+    <t>TC_013_Verify_with_EmptyExcel</t>
+  </si>
+  <si>
+    <t>TC_014_Verify_TextBoxErrorMessages</t>
+  </si>
+  <si>
+    <t>please enter employee name!</t>
+  </si>
+  <si>
+    <t>please enter mobile no!</t>
+  </si>
+  <si>
+    <t>please enter Email Id!</t>
+  </si>
+  <si>
+    <t>TC_001_Verify_BandhuDocs_PageTitle</t>
+  </si>
+  <si>
+    <t>bandhu_docsAudit</t>
+  </si>
+  <si>
+    <t>Page Should be Navigated</t>
+  </si>
+  <si>
+    <t>TC_002_Employee_Data is Showing</t>
   </si>
   <si>
     <t>NULL</t>
   </si>
   <si>
-    <t>File Should Be Downloaded</t>
-  </si>
-  <si>
-    <t>TC_009_Verify_FileUpload</t>
-  </si>
-  <si>
-    <t>successfully uploaded.</t>
-  </si>
-  <si>
-    <t>TC_010_Verify_FileUploaded data is Stored in Database</t>
-  </si>
-  <si>
-    <t>TC_011_Verify_UploadButton_Without_Selecting_File</t>
-  </si>
-  <si>
-    <t>csv file is required!</t>
-  </si>
-  <si>
-    <t>TC_012_Verify_Duplicate_Mobileno_EmailID</t>
-  </si>
-  <si>
-    <t>User Mobile Number Is Already exists!</t>
-  </si>
-  <si>
-    <t>User Email Id Is Already exists!</t>
-  </si>
-  <si>
-    <t>TC_013_Verify_with_EmptyExcel</t>
-  </si>
-  <si>
-    <t>TC_014_Verify_TextBoxErrorMessages</t>
-  </si>
-  <si>
-    <t>please enter employee name!</t>
-  </si>
-  <si>
-    <t>please enter mobile no!</t>
-  </si>
-  <si>
-    <t>please enter Email Id!</t>
-  </si>
-  <si>
-    <t>TC_001_Verify_BandhuDocs_PageTitle</t>
-  </si>
-  <si>
-    <t>bandhu_docsAudit</t>
-  </si>
-  <si>
-    <t>Page Should be Navigated</t>
-  </si>
-  <si>
-    <t>TC_002_Employee_Data is Showing</t>
-  </si>
-  <si>
     <t>Should be Displayed</t>
   </si>
   <si>
@@ -183,9 +170,6 @@
     <t>TC_006_Verify_Datas</t>
   </si>
   <si>
-    <t>7SFF3</t>
-  </si>
-  <si>
     <t>All Fields should be Same</t>
   </si>
   <si>
@@ -316,84 +300,6 @@
   </si>
   <si>
     <t>Employee Should be Approved</t>
-  </si>
-  <si>
-    <t>TestCase Failed</t>
-  </si>
-  <si>
-    <t>}}}%^+_%)_</t>
-  </si>
-  <si>
-    <t>-181850981</t>
-  </si>
-  <si>
-    <t>TYGJKQT</t>
-  </si>
-  <si>
-    <t>{^)&amp;(&amp;+&amp;!_</t>
-  </si>
-  <si>
-    <t>YSOBIBQ</t>
-  </si>
-  <si>
-    <t>&amp;$#(&amp;*%&amp;*+</t>
-  </si>
-  <si>
-    <t>-1562115385</t>
-  </si>
-  <si>
-    <t>APIMAXH</t>
-  </si>
-  <si>
-    <t>{}}$(()__)</t>
-  </si>
-  <si>
-    <t>PNVSXHI</t>
-  </si>
-  <si>
-    <t>))^($!*%!$</t>
-  </si>
-  <si>
-    <t>-1466359380</t>
-  </si>
-  <si>
-    <t>VTWICGA</t>
-  </si>
-  <si>
-    <t>{^@+$}_#++</t>
-  </si>
-  <si>
-    <t>XSTZNXH</t>
-  </si>
-  <si>
-    <t>#*#(+*(!()</t>
-  </si>
-  <si>
-    <t>1106271876</t>
-  </si>
-  <si>
-    <t>EVSEBXG</t>
-  </si>
-  <si>
-    <t>*$%!(%#(&amp;$</t>
-  </si>
-  <si>
-    <t>AJOXVSU</t>
-  </si>
-  <si>
-    <t>$^#^+&amp;(}($</t>
-  </si>
-  <si>
-    <t>2096209358</t>
-  </si>
-  <si>
-    <t>JBXGZBG</t>
-  </si>
-  <si>
-    <t>){#*%!}*&amp;_</t>
-  </si>
-  <si>
-    <t>PBUWUDR</t>
   </si>
 </sst>
 </file>
@@ -401,12 +307,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -444,12 +350,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial Narrow"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -458,7 +358,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -472,16 +425,55 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -495,104 +487,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -615,187 +515,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -820,74 +720,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -921,12 +753,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -935,143 +841,137 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1087,21 +987,21 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1111,13 +1011,10 @@
     <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1175,6 +1072,17 @@
   <dxfs count="2">
     <dxf>
       <font>
+        <b val="1"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <color theme="0"/>
@@ -1182,17 +1090,6 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1466,8 +1363,8 @@
   <sheetPr/>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1500,96 +1397,88 @@
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>121</v>
-      </c>
+      <c r="B2" s="7"/>
       <c r="C2" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>122</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B3" s="7"/>
       <c r="C3" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>123</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>124</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>125</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="9"/>
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3"/>
       <c r="B8" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="9"/>
@@ -1598,7 +1487,7 @@
     <row r="9" spans="1:5">
       <c r="A9" s="3"/>
       <c r="B9" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="9"/>
@@ -1606,189 +1495,156 @@
     </row>
     <row r="10" ht="33" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B10" s="8"/>
       <c r="C10" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D10" s="5"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="3"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
         <v>28</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" t="s">
-        <v>8</v>
       </c>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B12" s="8"/>
       <c r="C12" s="8" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" ht="25.5" spans="1:5">
+    <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>25</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B13" s="11"/>
       <c r="C13" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="8" t="s">
         <v>29</v>
       </c>
+      <c r="B14" s="8"/>
       <c r="C14" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" t="s">
-        <v>8</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D14" s="5"/>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>29</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B15" s="8"/>
       <c r="C15" s="8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" ht="16.5" spans="1:5">
-      <c r="A16" s="12"/>
-      <c r="B16" s="8" t="s">
-        <v>29</v>
-      </c>
+    <row r="16" spans="1:5">
+      <c r="A16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="8"/>
       <c r="C16" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" t="s">
-        <v>8</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>29</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B17" s="8"/>
       <c r="C17" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="4"/>
+        <v>33</v>
+      </c>
+      <c r="D17" s="5"/>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>29</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B18" s="8"/>
       <c r="C18" s="8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E18" s="4"/>
     </row>
     <row r="19" ht="16.5" spans="1:5">
-      <c r="A19" s="13"/>
-      <c r="B19" s="8" t="s">
-        <v>29</v>
-      </c>
+      <c r="A19" s="12"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E19" s="4"/>
     </row>
     <row r="20" ht="16.5" spans="1:5">
-      <c r="A20" s="13"/>
-      <c r="B20" s="8" t="s">
-        <v>29</v>
-      </c>
+      <c r="A20" s="12"/>
+      <c r="B20" s="8"/>
       <c r="C20" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
+    <row r="21" spans="5:5">
+      <c r="E21" s="13"/>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="14"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D23">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+  <conditionalFormatting sqref="D1:D20 D22:D23">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"TestCase Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"TestCase Passed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"TestCase Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -1805,8 +1661,8 @@
   <sheetPr/>
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1838,343 +1694,342 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" t="s">
-        <v>55</v>
+        <v>50</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D23" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E23" s="4"/>
     </row>
     <row r="24" spans="5:5">
-      <c r="E24" s="7"/>
+      <c r="E24" s="6"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D23 D26:D1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"TestCase Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"TestCase Passed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <printOptions horizontalCentered="true"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
